--- a/bh3/545310007344565647_2021-07-09_12-01-20.xlsx
+++ b/bh3/545310007344565647_2021-07-09_12-01-20.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4878539015</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:54:32</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44387.45453703704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -637,10 +651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:57</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44387.45274305555</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -735,10 +747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:51:46</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44387.45261574074</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -810,10 +820,8 @@
           <t>4877226862</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:00:49</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44387.08390046296</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -889,10 +897,8 @@
           <t>4877117810</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:27:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44387.06094907408</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -959,10 +965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:34:25</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44386.94056712963</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1034,10 +1038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:04:57</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44386.92010416667</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1131,10 +1133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:03:15</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44386.91892361111</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -1206,10 +1206,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:27:59</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44386.76943287037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1300,10 +1298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:23:15</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44386.76614583333</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1367,10 +1363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-09 17:07:41</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44386.71366898148</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1434,10 +1428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:32:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44386.68903935186</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1501,10 +1493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:46</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44386.6706712963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1568,10 +1558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-09 16:05:46</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44386.6706712963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1635,10 +1623,8 @@
           <t>4873208807</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:44:06</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44386.655625</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1710,10 +1696,8 @@
           <t>4873108542</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:26:00</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44386.64305555556</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1781,10 +1765,8 @@
           <t>4872397016</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:20:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44386.63935185185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1860,10 +1842,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:15:39</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44386.63586805556</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1939,10 +1919,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-09 15:07:32</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44386.63023148148</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2010,10 +1988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:49:27</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44386.61767361111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2077,10 +2053,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:46:02</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44386.61530092593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2148,10 +2122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:39:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44386.61072916666</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2219,10 +2191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:30:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44386.60430555556</v>
       </c>
       <c r="I24" t="n">
         <v>7</v>
@@ -2286,10 +2256,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:30:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44386.60423611111</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2349,10 +2317,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:27:31</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44386.60244212963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2428,10 +2394,8 @@
           <t>4872695462</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:08:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44386.5891087963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2499,10 +2463,8 @@
           <t>4872694090</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-09 14:08:03</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44386.58892361111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2570,10 +2532,8 @@
           <t>4872626066</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:55:50</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44386.58043981482</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2637,10 +2597,8 @@
           <t>4872315163</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:54:51</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44386.57975694445</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2710,10 +2668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:54:09</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44386.57927083333</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2789,10 +2745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:51:13</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44386.5772337963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2860,10 +2814,8 @@
           <t>4872601422</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:51:05</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44386.57714120371</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2931,10 +2883,8 @@
           <t>4872577072</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:48:01</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44386.57501157407</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -3002,10 +2952,8 @@
           <t>4872553823</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:44:15</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44386.57239583333</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3069,10 +3017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:42:18</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44386.57104166667</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3148,10 +3094,8 @@
           <t>4872525503</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:38:41</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44386.56853009259</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3219,10 +3163,8 @@
           <t>4872440394</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:32:55</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44386.56452546296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3290,10 +3232,8 @@
           <t>4872461369</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:28:45</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44386.56163194445</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3365,10 +3305,8 @@
           <t>4872440394</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:25:17</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44386.55922453704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3440,10 +3378,8 @@
           <t>4872315163</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:23:56</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44386.55828703703</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3511,10 +3447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:20:50</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44386.55613425926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3578,10 +3512,8 @@
           <t>4872402689</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:20:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44386.555625</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3657,10 +3589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:19:46</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44386.55539351852</v>
       </c>
       <c r="I44" t="n">
         <v>16</v>
@@ -3748,10 +3678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:19:18</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44386.55506944445</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3819,10 +3747,8 @@
           <t>4872385562</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:16:55</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44386.55341435185</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3894,10 +3820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:15:33</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44386.55246527777</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3973,10 +3897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:14:51</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44386.55197916667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4044,10 +3966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:09:55</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44386.54855324074</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4107,10 +4027,8 @@
           <t>4872319327</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:09:09</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44386.54802083333</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4185,10 +4103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:04:18</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44386.54465277777</v>
       </c>
       <c r="I51" t="n">
         <v>22</v>
@@ -4256,10 +4172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:03:55</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44386.54438657407</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4327,10 +4241,8 @@
           <t>4872271035</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-09 13:01:13</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44386.54251157407</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4398,10 +4310,8 @@
           <t>4872001190</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:55:44</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44386.53870370371</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4469,10 +4379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:54:41</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44386.53797453704</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4540,10 +4448,8 @@
           <t>4872156177</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:53:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44386.53741898148</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4619,10 +4525,8 @@
           <t>4872215569</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:53:35</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44386.53721064814</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4690,10 +4594,8 @@
           <t>4872177476</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:49:26</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44386.5343287037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4757,10 +4659,8 @@
           <t>4872175831</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:48:47</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44386.53387731482</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4824,10 +4724,8 @@
           <t>4872056884</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:47:22</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44386.53289351852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4903,10 +4801,8 @@
           <t>4872156177</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:46:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44386.53196759259</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4982,10 +4878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:44:11</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44386.53068287037</v>
       </c>
       <c r="I62" t="n">
         <v>6</v>
@@ -5053,10 +4947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:41:02</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44386.52849537037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5128,10 +5020,8 @@
           <t>4871923350</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:40:52</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44386.52837962963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5199,10 +5089,8 @@
           <t>4871880264</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:40:06</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44386.52784722222</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5270,10 +5158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:39:27</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44386.52739583333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5352,10 +5238,8 @@
           <t>4872056884</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:38:22</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44386.52664351852</v>
       </c>
       <c r="I67" t="n">
         <v>8</v>
@@ -5423,10 +5307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:36:42</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44386.52548611111</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5502,10 +5384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:34:26</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44386.52391203704</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5570,10 +5450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:33:14</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44386.52307870371</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5642,10 +5520,8 @@
           <t>4872056884</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:33:12</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44386.52305555555</v>
       </c>
       <c r="I71" t="n">
         <v>16</v>
@@ -5713,10 +5589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:30:52</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44386.52143518518</v>
       </c>
       <c r="I72" t="n">
         <v>13</v>
@@ -5792,10 +5666,8 @@
           <t>4872040508</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:30:40</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44386.5212962963</v>
       </c>
       <c r="I73" t="n">
         <v>17</v>
@@ -5876,10 +5748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:29:57</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44386.52079861111</v>
       </c>
       <c r="I74" t="n">
         <v>42</v>
@@ -5951,10 +5821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:29:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44386.52016203704</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -6030,10 +5898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:27:25</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44386.51903935185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6109,10 +5975,8 @@
           <t>4872007714</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:27:17</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44386.51894675926</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6188,10 +6052,8 @@
           <t>4872001190</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:26:35</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44386.51846064815</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -6267,10 +6129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:25:43</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44386.51785879629</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6338,10 +6198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:24:35</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44386.51707175926</v>
       </c>
       <c r="I80" t="n">
         <v>6</v>
@@ -6413,10 +6271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:18:50</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44386.51307870371</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6484,10 +6340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:18:43</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44386.51299768518</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6563,10 +6417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:17:26</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44386.51210648148</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6638,10 +6490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:16:38</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44386.51155092593</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6717,10 +6567,8 @@
           <t>4871925645</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:16:25</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44386.51140046296</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6784,10 +6632,8 @@
           <t>4871923350</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:16:14</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44386.51127314815</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6851,10 +6697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:15:08</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44386.51050925926</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6926,10 +6770,8 @@
           <t>4871911613</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:14:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44386.5102662037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6993,10 +6835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:14:05</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44386.50978009259</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7072,10 +6912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:13:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44386.50934027778</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -7147,10 +6985,8 @@
           <t>4871894032</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:12:42</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44386.50881944445</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7218,10 +7054,8 @@
           <t>4871882211</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:12:22</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44386.50858796296</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7286,10 +7120,8 @@
           <t>4871895345</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:12:17</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44386.50853009259</v>
       </c>
       <c r="I93" t="n">
         <v>6</v>
@@ -7357,10 +7189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:12:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44386.50841435185</v>
       </c>
       <c r="I94" t="n">
         <v>29</v>
@@ -7436,10 +7266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:12:00</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44386.50833333333</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7503,10 +7331,8 @@
           <t>4871836380</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:11:47</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44386.50818287037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7570,10 +7396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:11:41</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44386.50811342592</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7641,10 +7465,8 @@
           <t>4871891189</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:11:39</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44386.50809027778</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7708,10 +7530,8 @@
           <t>4871882211</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:11:32</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44386.50800925926</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7780,10 +7600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:11:28</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44386.50796296296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7861,10 +7679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:10:52</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44386.5075462963</v>
       </c>
       <c r="I101" t="n">
         <v>196</v>
@@ -7940,10 +7756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:10:49</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44386.50751157408</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8020,10 +7834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:10:41</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44386.50741898148</v>
       </c>
       <c r="I103" t="n">
         <v>4</v>
@@ -8095,10 +7907,8 @@
           <t>4871885850</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:10:34</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44386.50733796296</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8166,10 +7976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:10:26</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44386.50724537037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8229,10 +8037,8 @@
           <t>4871880264</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:10:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44386.50715277778</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8300,10 +8106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:09:50</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44386.50682870371</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8379,10 +8183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:09:48</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44386.50680555555</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8454,10 +8256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:09:26</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44386.50655092593</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8534,10 +8334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:09:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44386.50628472222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8613,10 +8411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:08:58</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44386.50622685185</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8684,10 +8480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:08:39</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44386.50600694444</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8763,10 +8557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:08:03</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44386.50559027777</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8838,10 +8630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:08:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44386.50555555556</v>
       </c>
       <c r="I114" t="n">
         <v>8</v>
@@ -8909,10 +8699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:07:38</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44386.50530092593</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8980,10 +8768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:07:26</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44386.50516203704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9054,10 +8840,8 @@
           <t>4871848296</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:07:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44386.50486111111</v>
       </c>
       <c r="I117" t="n">
         <v>4</v>
@@ -9135,10 +8919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:06:18</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44386.504375</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9198,10 +8980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:05:22</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44386.50372685185</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9277,10 +9057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:59</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44386.50346064815</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9340,10 +9118,8 @@
           <t>4871836380</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:33</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44386.50315972222</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9415,10 +9191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44386.50314814815</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9486,10 +9260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:23</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44386.50304398148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9557,10 +9329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:22</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44386.50303240741</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9632,10 +9402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:02</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44386.50280092593</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9707,10 +9475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:04:00</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44386.50277777778</v>
       </c>
       <c r="I126" t="n">
         <v>4</v>
@@ -9782,10 +9548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:03:48</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44386.50263888889</v>
       </c>
       <c r="I127" t="n">
         <v>14</v>
@@ -9861,10 +9625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:03:18</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44386.50229166666</v>
       </c>
       <c r="I128" t="n">
         <v>369</v>
@@ -9932,10 +9694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:03:13</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44386.50223379629</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -10007,10 +9767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:03:10</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44386.50219907407</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10086,10 +9844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:03:04</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44386.50212962963</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10153,10 +9909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:03:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44386.50209490741</v>
       </c>
       <c r="I132" t="n">
         <v>25</v>
@@ -10216,10 +9970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:52</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44386.50199074074</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10283,10 +10035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:51</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44386.50197916666</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10354,10 +10104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:50</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44386.50196759259</v>
       </c>
       <c r="I135" t="n">
         <v>117</v>
@@ -10429,10 +10177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:49</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44386.50195601852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10506,10 +10252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:44</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44386.50189814815</v>
       </c>
       <c r="I137" t="n">
         <v>52</v>
@@ -10578,10 +10322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44386.50189814815</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10641,10 +10383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:44</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44386.50189814815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10712,10 +10452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:42</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44386.501875</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10791,10 +10529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:41</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44386.50186342592</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10858,10 +10594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:38</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44386.5018287037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10921,10 +10655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:34</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44386.50178240741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10993,10 +10725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:28</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44386.50171296296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11064,10 +10794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:22</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44386.50164351852</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11144,10 +10872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:16</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44386.50157407407</v>
       </c>
       <c r="I146" t="n">
         <v>6</v>
@@ -11222,10 +10948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:13</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44386.50153935186</v>
       </c>
       <c r="I147" t="n">
         <v>28</v>
@@ -11302,10 +11026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:11</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44386.5015162037</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
@@ -11377,10 +11099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44386.50146990741</v>
       </c>
       <c r="I149" t="n">
         <v>19</v>
@@ -11448,10 +11168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:04</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44386.50143518519</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11523,10 +11241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:03</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44386.50142361111</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11602,10 +11318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:02:03</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44386.50142361111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11681,10 +11395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:01:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44386.50136574074</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11761,10 +11473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:01:46</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44386.50122685185</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11840,10 +11550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-09 12:01:45</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44386.50121527778</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
